--- a/resources/tools/wordlist_E-J/lessons/lesson-15.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-15.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,1660 +436,1660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to do sightseeing</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>観光する|かんこうする</t>
+          <t>インターネット</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to decide on (an item)</t>
+          <t>painting; picture; drawing</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>する</t>
+          <t>絵|え</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to graduate (from...)</t>
+          <t>movie theater</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卒業する|そつぎょうする</t>
+          <t>映画館|えいがかん</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to reserve</t>
+          <t>foreigner</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>予約する|よやくする</t>
+          <t>外国人|がいこくじん</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>all day long</t>
+          <t>furniture</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>一日中|いちにちじゅう</t>
+          <t>家具|かぐ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>...,but; ...,so</t>
+          <t>night club</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>～けど</t>
+          <t>クラブ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>recently</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>最近|さいきん</t>
+          <t>経験|けいけん</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>number...</t>
+          <t>wedding</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>～番|～ばん</t>
+          <t>結婚式|けっこんしき</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-th</t>
+          <t>earthquake</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>～目|～め</t>
+          <t>地震|じしん</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>one more time</t>
+          <t>deadline</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>もう一度|もういちど</t>
+          <t>締め切り|しめきり</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>graduation ceremony</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>卒業式|そつぎょうしき</t>
+          <t>ジャケット</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>soba; Japanese buckwheat noodles</t>
+          <t>custom</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>そば</t>
+          <t>習慣|しゅうかん</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>tax</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>地図|ちず</t>
+          <t>税金|ぜいきん</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>battery</t>
+          <t>graduation ceremony</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>電池|でんち</t>
+          <t>卒業式|そつぎょうしき</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>garden</t>
+          <t>soba; Japanese buckwheat noodles</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>庭|にわ</t>
+          <t>そば</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>presentation</t>
+          <t>map</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>発表|はっぴょう</t>
+          <t>地図|ちず</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>broadcast program</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>番組|ばんぐみ</t>
+          <t>電池|でんち</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>swimming pool</t>
+          <t>garden</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>プール</t>
+          <t>庭|にわ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pet</t>
+          <t>presentation</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ペット</t>
+          <t>発表|はっぴょう</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>insurance</t>
+          <t>broadcast program</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>保険|ほけん</t>
+          <t>番組|ばんぐみ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>schedule; plan</t>
+          <t>swimming pool</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>予定|よてい</t>
+          <t>プール</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Japanese inn</t>
+          <t>pet</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>旅館|りょかん</t>
+          <t>ペット</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>discount coupon</t>
+          <t>insurance</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>割引券|わりびきけん</t>
+          <t>保険|ほけん</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>first person</t>
+          <t>schedule; plan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>一人目|ひとりめ</t>
+          <t>予定|よてい</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>second person</t>
+          <t>Japanese inn</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>二人目|ふたりめ</t>
+          <t>旅館|りょかん</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>third person</t>
+          <t>discount coupon</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>三人目|さんにんめ</t>
+          <t>割引券|わりびきけん</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>first sheet</t>
+          <t>spacious; wide</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>一枚目|いちまいめ</t>
+          <t>広い|ひろい</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>second sheet</t>
+          <t>to sell</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>二枚目|にまいめ</t>
+          <t>売る|うる</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>third sheet</t>
+          <t>to withdraw (money)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>三枚目|さんまいめ</t>
+          <t>下ろす|おろす</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>first year</t>
+          <t>to draw; to paint</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>一年目|いちねんめ</t>
+          <t>描く|かく</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>second year</t>
+          <t>to look for</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>二年目|にねんめ</t>
+          <t>探す|さがす</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>third year</t>
+          <t>to invite</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>三年目|さんねんめ</t>
+          <t>誘う|さそう</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>first day</t>
+          <t>to chat</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>一日目|いちにちめ</t>
+          <t>しゃべる</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>second day</t>
+          <t>to date (someone); to keep company</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>二日目|ふつかめ</t>
+          <t>付き合う|つきあう</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>third day</t>
+          <t>to arrive</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>三日目|みっかめ</t>
+          <t>着く|つく</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>to buy insurance</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>保険に入る|ほけんにはいる</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>painting; picture; drawing</t>
+          <t>to be cautious/careful</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>絵|え</t>
+          <t>気をつける|きをつける</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>movie theater</t>
+          <t>to look into (a matter)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>映画館|えいがかん</t>
+          <t>調べる|しらべる</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>foreigner</t>
+          <t>to be visible</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>外国人|がいこくじん</t>
+          <t>見える|みえる</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>furniture</t>
+          <t>to do sightseeing</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>家具|かぐ</t>
+          <t>観光する|かんこうする</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>night club</t>
+          <t>to decide on (an item)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>クラブ</t>
+          <t>する</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>to graduate (from...)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>経験|けいけん</t>
+          <t>卒業する|そつぎょうする</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>wedding</t>
+          <t>to reserve</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>結婚式|けっこんしき</t>
+          <t>予約する|よやくする</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>earthquake</t>
+          <t>all day long</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>地震|じしん</t>
+          <t>一日中|いちにちじゅう</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>deadline</t>
+          <t>...,but; ...,so</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>締め切り|しめきり</t>
+          <t>～けど</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>recently</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ジャケット</t>
+          <t>最近|さいきん</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>custom</t>
+          <t>number...</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>習慣|しゅうかん</t>
+          <t>～番|～ばん</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>tax</t>
+          <t>-th</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>税金|ぜいきん</t>
+          <t>～目|～め</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>spacious; wide</t>
+          <t>one more time</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>広い|ひろい</t>
+          <t>もう一度|もういちど</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>to sell</t>
+          <t>...nights</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>売る|うる</t>
+          <t>～泊|～はく</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>to withdraw (money)</t>
+          <t>with...</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>下ろす|おろす</t>
+          <t>～付|～つき</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>to draw; to paint</t>
+          <t>with meals</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>描く|かく</t>
+          <t>食事付|しょくじつき</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>to look for</t>
+          <t>one night with two meals</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>探す|さがす</t>
+          <t>一泊二食付|いっぱくにしょくつき</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>to invite</t>
+          <t>checking in</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>誘う|さそう</t>
+          <t>チェックイン（する）</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>to chat</t>
+          <t>checking out</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>しゃべる</t>
+          <t>チェックアウト（する）</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>to date (someone); to keep company</t>
+          <t>single room</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>付き合う|つきあう</t>
+          <t>シングル</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>to arrive</t>
+          <t>double room</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>着く|つく</t>
+          <t>ダブル</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>to buy insurance</t>
+          <t>twin room</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>保険に入る|ほけんにはいる</t>
+          <t>ツイン</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>to be cautious/careful</t>
+          <t>...person(s)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>気をつける|きをつける</t>
+          <t>～名|～めい</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>to look into (a matter)</t>
+          <t>receptionist; front desk</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>調べる|しらべる</t>
+          <t>フロント</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>to be visible</t>
+          <t>non-smoking room</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>見える|みえる</t>
+          <t>禁煙ルーム|きんえんルーム</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>...nights</t>
+          <t>smoking room</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>～泊|～はく</t>
+          <t>喫煙ルーム|きつえんルーム</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>with...</t>
+          <t>Can I pay by credit card?</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>～付|～つき</t>
+          <t>クレジットカードで払えますか。|クレジットカードではらえますか。</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>with meals</t>
+          <t>Could you keep my luggage until 2 o'clock?</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>食事付|しょくじつき</t>
+          <t>二時まで荷物を預かってくれませんか。|にじまでにもつをあずかってくれませんか。</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>one night with two meals</t>
+          <t>first person</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>一泊二食付|いっぱくにしょくつき</t>
+          <t>一人目|ひとりめ</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>checking in</t>
+          <t>second person</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>チェックイン（する）</t>
+          <t>二人目|ふたりめ</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>checking out</t>
+          <t>third person</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>チェックアウト（する）</t>
+          <t>三人目|さんにんめ</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>single room</t>
+          <t>first sheet</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>シングル</t>
+          <t>一枚目|いちまいめ</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>double room</t>
+          <t>second sheet</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ダブル</t>
+          <t>二枚目|にまいめ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>twin room</t>
+          <t>third sheet</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ツイン</t>
+          <t>三枚目|さんまいめ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>...person(s)</t>
+          <t>first year</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>～名|～めい</t>
+          <t>一年目|いちねんめ</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>receptionist; front desk</t>
+          <t>second year</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>フロント</t>
+          <t>二年目|にねんめ</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>non-smoking room</t>
+          <t>third year</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>禁煙ルーム|きんえんルーム</t>
+          <t>三年目|さんねんめ</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>smoking room</t>
+          <t>first day</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>喫煙ルーム|きつえんルーム</t>
+          <t>一日目|いちにちめ</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Can I pay by credit card?</t>
+          <t>second day</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>クレジットカードで払えますか。|クレジットカードではらえますか。</t>
+          <t>二日目|ふつかめ</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Could you keep my luggage until 2 o'clock?</t>
+          <t>third day</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>二時まで荷物を預かってくれませんか。|にじまでにもつをあずかってくれませんか。</t>
+          <t>三日目|みっかめ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>wide; spacious</t>
+          <t>to die</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>広い|ひろい</t>
+          <t>死ぬ|しぬ</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>square; open space</t>
+          <t>death</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>広場|ひろば</t>
+          <t>死|し</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hiroshima</t>
+          <t>desperate</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>広島|ひろしま</t>
+          <t>必死|ひっし</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>advertisement</t>
+          <t>the dead</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>広告|こうこく</t>
+          <t>死者|ししゃ</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>meaning</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>自転車|じてんしゃ</t>
+          <t>意味|いみ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>to drive</t>
+          <t>to watch out</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>運転する|うんてんする</t>
+          <t>注意する|ちゅういする</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>rotating sushi</t>
+          <t>opinion</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>回転ずし|かいてんずし</t>
+          <t>意見|いけん</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>to tumble; to fall down</t>
+          <t>to prepare</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>転ぶ|ころぶ</t>
+          <t>用意する|よういする</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>to borrow</t>
+          <t>hobby</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>借りる|かりる</t>
+          <t>趣味|しゅみ</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>rented land</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>借地|しゃくち</t>
+          <t>興味|きょうみ</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>debt</t>
+          <t>soybean paste</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>借金|しゃっきん</t>
+          <t>味噌|みそ</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>rented house</t>
+          <t>taste</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>借家|しゃくや</t>
+          <t>味|あじ</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>square; open space</t>
+          <t>to watch out</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>広場|ひろば</t>
+          <t>注意する|ちゅういする</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>to order</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>場所|ばしょ</t>
+          <t>注文する|ちゅうもんする</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>to pour</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>場合|ばあい</t>
+          <t>注ぐ|そそぐ</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>parking garage</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>駐車場|ちゅうしゃじょう</t>
+          <t>夏|なつ</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>foot; leg</t>
+          <t>summer vacation</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>足|あし</t>
+          <t>夏休み|なつやすみ</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>to be sufficient</t>
+          <t>early summer</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>足りる|たりる</t>
+          <t>初夏|しょか</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>one pair of shoes</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>一足|いっそく</t>
+          <t>魚|さかな</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>lack of water</t>
+          <t>fish market</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>水不足|みずぶそく</t>
+          <t>魚市場|うおいちば</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>to go through; to pass</t>
+          <t>gold fish</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>通る|とおる</t>
+          <t>金魚|きんぎょ</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>to commute</t>
+          <t>mermaid</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>通う|かよう</t>
+          <t>人魚|にんぎょ</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>going to school</t>
+          <t>temple</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>通学|つうがく</t>
+          <t>お寺|おてら</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>going to work</t>
+          <t>Toji Temple</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>通勤|つうきん</t>
+          <t>東寺|とうじ</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>to die</t>
+          <t>sacred building</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>死ぬ|しぬ</t>
+          <t>寺院|じいん</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>zen temple</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>死|し</t>
+          <t>禅寺|ぜんでら</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>desperate</t>
+          <t>wide; spacious</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>必死|ひっし</t>
+          <t>広い|ひろい</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>the dead</t>
+          <t>square; open space</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>死者|ししゃ</t>
+          <t>広場|ひろば</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>meaning</t>
+          <t>Hiroshima</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>意味|いみ</t>
+          <t>広島|ひろしま</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>to watch out</t>
+          <t>advertisement</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>注意する|ちゅういする</t>
+          <t>広告|こうこく</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>opinion</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>意見|いけん</t>
+          <t>自転車|じてんしゃ</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>to prepare</t>
+          <t>to drive</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>用意する|よういする</t>
+          <t>運転する|うんてんする</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>hobby</t>
+          <t>rotating sushi</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>趣味|しゅみ</t>
+          <t>回転ずし|かいてんずし</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>to tumble; to fall down</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>興味|きょうみ</t>
+          <t>転ぶ|ころぶ</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>soybean paste</t>
+          <t>to borrow</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>味噌|みそ</t>
+          <t>借りる|かりる</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>taste</t>
+          <t>rented land</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>味|あじ</t>
+          <t>借地|しゃくち</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>to run</t>
+          <t>debt</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>走る|はしる</t>
+          <t>借金|しゃっきん</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>hasty writing</t>
+          <t>rented house</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>走り書き|はしりがき</t>
+          <t>借家|しゃくや</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>escape from a prison</t>
+          <t>to run</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>脱走|だっそう</t>
+          <t>走る|はしる</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>hasty writing</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>建物|たてもの</t>
+          <t>走り書き|はしりがき</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>to build</t>
+          <t>escape from a prison</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>建てる|たてる</t>
+          <t>脱走|だっそう</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>to be built</t>
+          <t>building</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>建つ|たつ</t>
+          <t>建物|たてもの</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>founding a nation</t>
+          <t>to build</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>建国|けんこく</t>
+          <t>建てる|たてる</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>underground</t>
+          <t>to be built</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>地下|ちか</t>
+          <t>建つ|たつ</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>subway</t>
+          <t>founding a nation</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>地下鉄|ちかてつ</t>
+          <t>建国|けんこく</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>underground</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>地図|ちず</t>
+          <t>地下|ちか</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>earth; globe</t>
+          <t>subway</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>地球|ちきゅう</t>
+          <t>地下鉄|ちかてつ</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>earthquake</t>
+          <t>map</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>地震|じしん</t>
+          <t>地図|ちず</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>to watch out</t>
+          <t>earth; globe</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>注意する|ちゅういする</t>
+          <t>地球|ちきゅう</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>to order</t>
+          <t>earthquake</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>注文する|ちゅうもんする</t>
+          <t>地震|じしん</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>to pour</t>
+          <t>square; open space</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>注ぐ|そそぐ</t>
+          <t>広場|ひろば</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>place</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>夏|なつ</t>
+          <t>場所|ばしょ</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>summer vacation</t>
+          <t>case</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>夏休み|なつやすみ</t>
+          <t>場合|ばあい</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>early summer</t>
+          <t>parking garage</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>初夏|しょか</t>
+          <t>駐車場|ちゅうしゃじょう</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>foot; leg</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>魚|さかな</t>
+          <t>足|あし</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>fish market</t>
+          <t>to be sufficient</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>魚市場|うおいちば</t>
+          <t>足りる|たりる</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>gold fish</t>
+          <t>one pair of shoes</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>金魚|きんぎょ</t>
+          <t>一足|いっそく</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>mermaid</t>
+          <t>lack of water</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>人魚|にんぎょ</t>
+          <t>水不足|みずぶそく</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>temple</t>
+          <t>to go through; to pass</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>お寺|おてら</t>
+          <t>通る|とおる</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Toji Temple</t>
+          <t>to commute</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>東寺|とうじ</t>
+          <t>通う|かよう</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>sacred building</t>
+          <t>going to school</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>寺院|じいん</t>
+          <t>通学|つうがく</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>zen temple</t>
+          <t>going to work</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>禅寺|ぜんでら</t>
+          <t>通勤|つうきん</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-15.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-15.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2090,6 +2090,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>